--- a/src/tests/data/results/IEEE 118 Bus.sav.xlsx
+++ b/src/tests/data/results/IEEE 118 Bus.sav.xlsx
@@ -1,1658 +1,1073 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21072" windowHeight="9280" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Vabs" sheetId="1" r:id="rId1"/>
-    <sheet name="Vang" sheetId="2" r:id="rId2"/>
-    <sheet name="Pbranch" sheetId="3" r:id="rId3"/>
-    <sheet name="Qbranch" sheetId="4" r:id="rId4"/>
+    <sheet name="Vabs" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Vang" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Pbranch" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Qbranch" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Qgen" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="297">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>1_2_1</t>
-  </si>
-  <si>
-    <t>1_3_1</t>
-  </si>
-  <si>
-    <t>2_12_1</t>
-  </si>
-  <si>
-    <t>3_5_1</t>
-  </si>
-  <si>
-    <t>3_12_1</t>
-  </si>
-  <si>
-    <t>4_5_1</t>
-  </si>
-  <si>
-    <t>4_11_1</t>
-  </si>
-  <si>
-    <t>5_6_1</t>
-  </si>
-  <si>
-    <t>5_11_1</t>
-  </si>
-  <si>
-    <t>6_7_1</t>
-  </si>
-  <si>
-    <t>7_12_1</t>
-  </si>
-  <si>
-    <t>8_9_1</t>
-  </si>
-  <si>
-    <t>8_30_1</t>
-  </si>
-  <si>
-    <t>9_10_1</t>
-  </si>
-  <si>
-    <t>11_12_1</t>
-  </si>
-  <si>
-    <t>11_13_1</t>
-  </si>
-  <si>
-    <t>12_14_1</t>
-  </si>
-  <si>
-    <t>12_16_1</t>
-  </si>
-  <si>
-    <t>12_117_1</t>
-  </si>
-  <si>
-    <t>13_15_1</t>
-  </si>
-  <si>
-    <t>14_15_1</t>
-  </si>
-  <si>
-    <t>15_17_1</t>
-  </si>
-  <si>
-    <t>15_19_1</t>
-  </si>
-  <si>
-    <t>15_33_1</t>
-  </si>
-  <si>
-    <t>16_17_1</t>
-  </si>
-  <si>
-    <t>17_18_1</t>
-  </si>
-  <si>
-    <t>17_31_1</t>
-  </si>
-  <si>
-    <t>17_113_1</t>
-  </si>
-  <si>
-    <t>18_19_1</t>
-  </si>
-  <si>
-    <t>19_20_1</t>
-  </si>
-  <si>
-    <t>19_34_1</t>
-  </si>
-  <si>
-    <t>20_21_1</t>
-  </si>
-  <si>
-    <t>21_22_1</t>
-  </si>
-  <si>
-    <t>22_23_1</t>
-  </si>
-  <si>
-    <t>23_24_1</t>
-  </si>
-  <si>
-    <t>23_25_1</t>
-  </si>
-  <si>
-    <t>23_32_1</t>
-  </si>
-  <si>
-    <t>24_70_1</t>
-  </si>
-  <si>
-    <t>24_72_1</t>
-  </si>
-  <si>
-    <t>25_27_1</t>
-  </si>
-  <si>
-    <t>26_30_1</t>
-  </si>
-  <si>
-    <t>27_28_1</t>
-  </si>
-  <si>
-    <t>27_32_1</t>
-  </si>
-  <si>
-    <t>27_115_1</t>
-  </si>
-  <si>
-    <t>28_29_1</t>
-  </si>
-  <si>
-    <t>29_31_1</t>
-  </si>
-  <si>
-    <t>30_38_1</t>
-  </si>
-  <si>
-    <t>31_32_1</t>
-  </si>
-  <si>
-    <t>32_113_1</t>
-  </si>
-  <si>
-    <t>32_114_1</t>
-  </si>
-  <si>
-    <t>33_37_1</t>
-  </si>
-  <si>
-    <t>34_36_1</t>
-  </si>
-  <si>
-    <t>34_37_1</t>
-  </si>
-  <si>
-    <t>34_43_1</t>
-  </si>
-  <si>
-    <t>35_36_1</t>
-  </si>
-  <si>
-    <t>35_37_1</t>
-  </si>
-  <si>
-    <t>37_39_1</t>
-  </si>
-  <si>
-    <t>37_40_1</t>
-  </si>
-  <si>
-    <t>38_65_1</t>
-  </si>
-  <si>
-    <t>39_40_1</t>
-  </si>
-  <si>
-    <t>40_41_1</t>
-  </si>
-  <si>
-    <t>40_42_1</t>
-  </si>
-  <si>
-    <t>41_42_1</t>
-  </si>
-  <si>
-    <t>42_49_1</t>
-  </si>
-  <si>
-    <t>43_44_1</t>
-  </si>
-  <si>
-    <t>44_45_1</t>
-  </si>
-  <si>
-    <t>45_46_1</t>
-  </si>
-  <si>
-    <t>45_49_1</t>
-  </si>
-  <si>
-    <t>46_47_1</t>
-  </si>
-  <si>
-    <t>46_48_1</t>
-  </si>
-  <si>
-    <t>47_49_1</t>
-  </si>
-  <si>
-    <t>47_69_1</t>
-  </si>
-  <si>
-    <t>48_49_1</t>
-  </si>
-  <si>
-    <t>49_50_1</t>
-  </si>
-  <si>
-    <t>49_51_1</t>
-  </si>
-  <si>
-    <t>49_54_1</t>
-  </si>
-  <si>
-    <t>49_66_1</t>
-  </si>
-  <si>
-    <t>49_69_1</t>
-  </si>
-  <si>
-    <t>50_57_1</t>
-  </si>
-  <si>
-    <t>51_52_1</t>
-  </si>
-  <si>
-    <t>51_58_1</t>
-  </si>
-  <si>
-    <t>52_53_1</t>
-  </si>
-  <si>
-    <t>53_54_1</t>
-  </si>
-  <si>
-    <t>54_55_1</t>
-  </si>
-  <si>
-    <t>54_56_1</t>
-  </si>
-  <si>
-    <t>54_59_1</t>
-  </si>
-  <si>
-    <t>55_56_1</t>
-  </si>
-  <si>
-    <t>55_59_1</t>
-  </si>
-  <si>
-    <t>56_57_1</t>
-  </si>
-  <si>
-    <t>56_58_1</t>
-  </si>
-  <si>
-    <t>56_59_1</t>
-  </si>
-  <si>
-    <t>59_60_1</t>
-  </si>
-  <si>
-    <t>59_61_1</t>
-  </si>
-  <si>
-    <t>60_61_1</t>
-  </si>
-  <si>
-    <t>60_62_1</t>
-  </si>
-  <si>
-    <t>61_62_1</t>
-  </si>
-  <si>
-    <t>62_66_1</t>
-  </si>
-  <si>
-    <t>62_67_1</t>
-  </si>
-  <si>
-    <t>63_64_1</t>
-  </si>
-  <si>
-    <t>64_65_1</t>
-  </si>
-  <si>
-    <t>65_68_1</t>
-  </si>
-  <si>
-    <t>66_67_1</t>
-  </si>
-  <si>
-    <t>68_81_1</t>
-  </si>
-  <si>
-    <t>68_116_1</t>
-  </si>
-  <si>
-    <t>69_70_1</t>
-  </si>
-  <si>
-    <t>69_75_1</t>
-  </si>
-  <si>
-    <t>69_77_1</t>
-  </si>
-  <si>
-    <t>70_71_1</t>
-  </si>
-  <si>
-    <t>70_74_1</t>
-  </si>
-  <si>
-    <t>70_75_1</t>
-  </si>
-  <si>
-    <t>71_72_1</t>
-  </si>
-  <si>
-    <t>71_73_1</t>
-  </si>
-  <si>
-    <t>74_75_1</t>
-  </si>
-  <si>
-    <t>75_77_1</t>
-  </si>
-  <si>
-    <t>75_118_1</t>
-  </si>
-  <si>
-    <t>76_77_1</t>
-  </si>
-  <si>
-    <t>76_118_1</t>
-  </si>
-  <si>
-    <t>77_78_1</t>
-  </si>
-  <si>
-    <t>77_80_1</t>
-  </si>
-  <si>
-    <t>77_82_1</t>
-  </si>
-  <si>
-    <t>78_79_1</t>
-  </si>
-  <si>
-    <t>79_80_1</t>
-  </si>
-  <si>
-    <t>80_96_1</t>
-  </si>
-  <si>
-    <t>80_97_1</t>
-  </si>
-  <si>
-    <t>80_98_1</t>
-  </si>
-  <si>
-    <t>80_99_1</t>
-  </si>
-  <si>
-    <t>82_83_1</t>
-  </si>
-  <si>
-    <t>82_96_1</t>
-  </si>
-  <si>
-    <t>83_84_1</t>
-  </si>
-  <si>
-    <t>83_85_1</t>
-  </si>
-  <si>
-    <t>84_85_1</t>
-  </si>
-  <si>
-    <t>85_86_1</t>
-  </si>
-  <si>
-    <t>85_88_1</t>
-  </si>
-  <si>
-    <t>85_89_1</t>
-  </si>
-  <si>
-    <t>86_87_1</t>
-  </si>
-  <si>
-    <t>88_89_1</t>
-  </si>
-  <si>
-    <t>89_90_1</t>
-  </si>
-  <si>
-    <t>89_92_1</t>
-  </si>
-  <si>
-    <t>90_91_1</t>
-  </si>
-  <si>
-    <t>91_92_1</t>
-  </si>
-  <si>
-    <t>92_93_1</t>
-  </si>
-  <si>
-    <t>92_94_1</t>
-  </si>
-  <si>
-    <t>92_100_1</t>
-  </si>
-  <si>
-    <t>92_102_1</t>
-  </si>
-  <si>
-    <t>93_94_1</t>
-  </si>
-  <si>
-    <t>94_95_1</t>
-  </si>
-  <si>
-    <t>94_96_1</t>
-  </si>
-  <si>
-    <t>94_100_1</t>
-  </si>
-  <si>
-    <t>95_96_1</t>
-  </si>
-  <si>
-    <t>96_97_1</t>
-  </si>
-  <si>
-    <t>98_100_1</t>
-  </si>
-  <si>
-    <t>99_100_1</t>
-  </si>
-  <si>
-    <t>100_101_1</t>
-  </si>
-  <si>
-    <t>100_103_1</t>
-  </si>
-  <si>
-    <t>100_104_1</t>
-  </si>
-  <si>
-    <t>100_106_1</t>
-  </si>
-  <si>
-    <t>101_102_1</t>
-  </si>
-  <si>
-    <t>103_104_1</t>
-  </si>
-  <si>
-    <t>103_105_1</t>
-  </si>
-  <si>
-    <t>103_110_1</t>
-  </si>
-  <si>
-    <t>104_105_1</t>
-  </si>
-  <si>
-    <t>105_106_1</t>
-  </si>
-  <si>
-    <t>105_107_1</t>
-  </si>
-  <si>
-    <t>105_108_1</t>
-  </si>
-  <si>
-    <t>106_107_1</t>
-  </si>
-  <si>
-    <t>108_109_1</t>
-  </si>
-  <si>
-    <t>109_110_1</t>
-  </si>
-  <si>
-    <t>110_111_1</t>
-  </si>
-  <si>
-    <t>110_112_1</t>
-  </si>
-  <si>
-    <t>114_115_1</t>
-  </si>
-  <si>
-    <t>5_8_1</t>
-  </si>
-  <si>
-    <t>17_30_1</t>
-  </si>
-  <si>
-    <t>25_26_1</t>
-  </si>
-  <si>
-    <t>37_38_1</t>
-  </si>
-  <si>
-    <t>59_63_1</t>
-  </si>
-  <si>
-    <t>61_64_1</t>
-  </si>
-  <si>
-    <t>65_66_1</t>
-  </si>
-  <si>
-    <t>68_69_1</t>
-  </si>
-  <si>
-    <t>80_81_1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="299">
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_12_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_5_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_12_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_5_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_11_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_6_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_11_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6_7_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7_12_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8_9_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8_30_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9_10_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_12_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_13_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_14_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_16_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_117_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_15_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_15_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_17_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_19_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_33_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_17_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_18_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_31_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_113_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_19_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_20_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_34_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_21_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_22_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_23_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_24_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_25_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_32_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_70_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_72_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_27_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26_30_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_28_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_32_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_115_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_29_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_31_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30_38_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_32_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32_113_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32_114_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33_37_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_36_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_37_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_43_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_36_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_37_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37_39_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37_40_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38_65_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39_40_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_41_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_42_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41_42_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42_49_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_44_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44_45_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45_46_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45_49_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46_47_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46_48_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47_49_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47_69_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_49_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_50_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_51_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_54_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_66_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_69_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50_57_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51_52_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51_58_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52_53_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53_54_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54_55_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54_56_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54_59_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55_56_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55_59_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56_57_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56_58_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56_59_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59_60_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59_61_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_61_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_62_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61_62_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62_66_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62_67_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63_64_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64_65_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65_68_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66_67_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68_81_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68_116_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_70_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_75_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_77_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70_71_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70_74_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70_75_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71_72_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71_73_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74_75_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75_77_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75_118_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76_77_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76_118_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77_78_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77_80_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77_82_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78_79_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79_80_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_96_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_97_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_98_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_99_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82_83_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82_96_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83_84_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83_85_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84_85_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85_86_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85_88_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85_89_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_87_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88_89_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89_90_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89_92_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90_91_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91_92_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92_93_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92_94_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92_100_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92_102_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93_94_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94_95_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94_96_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94_100_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95_96_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96_97_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98_100_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99_100_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100_101_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100_103_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100_104_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100_106_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101_102_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103_104_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103_105_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103_110_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104_105_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_106_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_107_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_108_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106_107_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108_109_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109_110_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110_111_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110_112_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114_115_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_8_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_30_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_26_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37_38_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59_63_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61_64_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65_66_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68_69_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_81_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus  Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVAr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -1660,5084 +1075,5469 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>0.954999976538874</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0.971393355176237</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.967693118719562</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>0.998000053218891</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>1.00198930197117</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>0.990000030869052</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>0.989328363322248</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>1.01500000458914</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>1.04291821480801</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>1.0499999205414</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>0.985083508402754</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>0.990000032475325</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>0.968291204720378</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>0.983586370789471</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>0.970000037096397</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>0.983835998691676</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>0.99489814875091</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>0.97299999838079</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>0.962000011137173</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>0.956681492984733</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>0.957348441878246</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>0.968615847871519</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>0.999347628219957</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>0.991999981710596</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>1.04999993056859</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>1.01500002421164</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>0.968000004338576</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>0.961566517428342</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>0.963221389318073</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>0.984478535442332</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>0.967000002625517</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>0.962999975240542</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>0.970783639602575</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>0.984000037143424</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>0.980406295069224</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>0.980000014478175</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>0.990386620322758</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>0.958431898598421</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>0.968983949504403</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>0.970000005772711</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>0.966872624939207</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>0.984999999990285</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>0.97678587120157</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>0.983910156176241</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>0.985969014253668</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>1.00499999591414</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>1.01647184528664</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>1.02064562314097</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>1.02499992611019</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>1.00071452673285</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>0.966188691073688</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>0.956071475183106</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>0.945599032880455</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>0.954999963295439</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>0.952000019853939</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>0.953999979436173</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>0.970201735057312</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>0.958599313269925</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>0.985000039639203</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>0.993111044915821</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>0.994999994487552</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>0.998000009735891</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>0.968313383799919</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>0.983523956008589</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>1.00500001789224</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>1.04999997131456</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>1.01934654515248</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>1.00322703243713</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>1.0349999666214</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>0.984000052727992</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>0.986827812448616</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>0.98000004754181</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>0.991000015662446</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>0.958000001935007</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>0.967149939222165</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>0.943000041042993</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>1.00600003812589</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>1.00350922541832</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>1.00902901703406</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>1.03999996464823</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>0.996839231328983</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>0.986381742096473</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>0.98041850854983</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>0.977458221144778</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>0.985000040550354</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>0.986690780085742</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>1.01499997264733</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>0.985791287218768</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>1.00499998968436</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>0.98499999445626</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>0.980000026186456</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>0.989999980568791</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>0.986392772563328</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>0.990435972217496</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>0.980592294348216</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>0.992075492363432</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>1.01092494948728</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>1.02323718752312</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>1.01000004653135</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>1.017000017633</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>0.992157750391798</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>0.989670566652633</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>1.01000004177299</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>0.971000009313553</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>0.964999989325698</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>0.961146314837128</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>0.951999993505591</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>0.966211749304624</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>0.967025514363454</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>0.973000004568563</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>0.980000014478695</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>0.975000040463509</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>0.992999968919407</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>0.960093061997961</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>0.960022845783875</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>1.00500003557101</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>0.973824468037362</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>0.949321776141105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>-0.362082280299817</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>-0.352717639496006</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>-0.346639383044897</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>-0.281639056930223</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>-0.273850266346235</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>-0.32157162555972</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>-0.32937732766784</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>-0.185981931519227</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>-0.0593739160248303</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>0.0729379223479706</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>-0.326657129799384</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>-0.335710636526148</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>-0.350999703389388</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>-0.348599250256015</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>-0.354820579749546</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>-0.340953906783425</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>-0.309348728517141</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>-0.348861169384796</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>-0.357797672080004</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>-0.340664574473172</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>-0.311611030293301</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>-0.265495716561501</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>-0.177254454614702</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>-0.176508495064837</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>-0.058245964826928</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>-0.0278986379029902</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>-0.278382978596144</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>-0.308859008948001</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>-0.326598502432477</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>-0.220517595498171</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>-0.324708177929789</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>-0.287869545783326</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>-0.37024647650391</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>-0.363461938065449</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>-0.37162977766145</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>-0.371575514546908</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>-0.35593616114656</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>-0.253542453231837</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>-0.440131950365337</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>-0.473533851115947</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>-0.492321769543883</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>-0.494564003826898</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>-0.36034228034398</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>-0.311105079158506</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>-0.277018368045108</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>-0.225840570261305</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>-0.18413278595224</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>-0.20141668000799</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>-0.184109532032564</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>-0.223713579327103</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>-0.274773513486532</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>-0.292956172920156</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>-0.314182393158628</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>-0.301359901610966</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>-0.303165444913436</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>-0.302247787804915</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>-0.275514082920682</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>-0.291612463464023</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>-0.185202349315237</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>-0.110810113367032</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>-0.095318897258927</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>-0.102538028989764</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>-0.12154692423008</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>-0.0881839197284798</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>-0.0311741521150061</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>-0.01526465622153</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>-0.0688101759767215</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>-0.0354294152373188</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>-0.137441465022576</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>-0.145725878497687</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>-0.17053408240263</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>-0.149420433607974</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>-0.154252798988252</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>-0.132246973292275</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>-0.155574117113517</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>-0.0741148187142907</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>-0.0761374020750023</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>-0.064611866430665</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>-0.00785325263460248</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>-0.0246436003933378</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>-0.0406242283027036</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>-0.000103639169126228</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>0.0758175564806021</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>0.118157150502503</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>0.0942557649051707</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>0.0987798772710687</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>0.200337786363501</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>0.290024812297801</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>0.0768368739855564</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>0.0452947731367705</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>0.00690111473987682</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>-0.0271404010368281</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>-0.0486669007544058</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>-0.0568871385455497</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>-0.0487730162223377</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>-0.0344582963012745</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>-0.0478573155601685</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>-0.0661056369923473</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>-0.0586735074343074</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>-0.0461511665068053</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>-0.0126184569396308</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>-0.12396784780207</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>-0.16882255771796</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>-0.18809451057744</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>-0.192635167454736</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>-0.241517265107895</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>-0.20903986308398</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>-0.216939200286877</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>-0.231719679906096</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>-0.203007623180536</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>-0.285811253937669</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>-0.309085502341541</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>-0.29370495468068</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>-0.293849770115448</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>-0.0430234331617291</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>-0.362606172948449</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>-0.151157167257209</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B178" activeCellId="0" sqref="B178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="13.625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>-12.3048191070557</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>-38.6951789855957</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>-32.4021530151367</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>-68.2216644287109</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>-9.72407245635986</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>-103.487106323242</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>64.4871139526367</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>88.6863784790039</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>77.5164337158203</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>35.7513961791992</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>16.6905689239502</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>-440.635009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>73.2794342041016</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>-445.254669189453</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>34.4341506958008</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35.4788475036621</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>18.7801132202148</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>7.50261545181274</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>20.152551651001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>1.15600883960724</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>4.70023250579834</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>-106.656219482422</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>11.944616317749</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>10.5342435836792</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>-17.5159282684326</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>81.7445602416992</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>13.6094970703125</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>0.951676368713379</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>20.8382167816162</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>-11.9549512863159</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>-0.399045795202255</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>-30.007453918457</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>-44.1951141357422</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>-54.6405982971191</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>2.41072225570679</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>-160.167510986328</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>95.0201644897461</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>-9.2532205581665</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>-1.36434423923492</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>143.925247192383</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>225.819107055664</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>33.2508277893066</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>12.5219535827637</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>20.7209892272949</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>16.0250835418701</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>-8.04866600036621</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>61.4034576416016</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>-30.6334762573242</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>5.23356962203979</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>9.37420177459717</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>-12.5162181854248</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>30.7569618225098</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>-89.5109252929687</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>-0.703102469444275</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>0.330561608076096</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>-33.3305625915527</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>76.1774215698242</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>64.6698684692383</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>-215.584136962891</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>47.2783164978027</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>35.0301628112793</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>7.87820672988892</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>-2.16124367713928</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>-90.4499740600586</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>-18.7115650177002</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>-34.9379768371582</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>-37.8850021362305</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>-50.3469581604004</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>-33.0839538574219</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>-14.3928108215332</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>-3.91201424598694</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>-63.5846061706543</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>-34.5237045288086</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>58.734489440918</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>72.9334564208984</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>43.5222702026367</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>-191.645126342773</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>-54.2120819091797</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>40.8127174377441</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>30.7297077178955</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>22.5372486114502</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>12.5157985687256</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>-10.5579977035522</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>3.11308121681213</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>10.4817609786987</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>-47.3987007141113</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>-8.6863431930542</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>-51.204402923584</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>-27.6815891265869</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>-10.3562755584717</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>-44.1807327270508</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>-48.614143371582</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>-56.7929039001465</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>-111.660446166992</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>-15.7417993545532</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>16.5460720062256</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>-44.5777435302734</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>-31.6859760284424</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>-163.732818603516</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>-190.734024047852</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>27.5748405456543</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>60.8067512512207</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>-50.2465858459473</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>184.12614440918</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>115.054870605469</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>116.806098937988</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>78.9071350097656</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>19.5306205749512</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>16.3662109375</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>0.0606524683535099</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>13.4689521789551</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>6.0124683380127</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>-51.8315315246582</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>-30.8899250030518</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>43.0873794555664</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>-58.3130226135254</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>-9.68697547912598</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>20.6963577270508</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>-69.069709777832</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>-27.3085441589356</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>-50.3267822265625</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>-89.4708633422852</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>27.5850505828857</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>35.0214080810547</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>41.1400947570801</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>31.676248550415</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>-92.6699600219727</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>10.8147144317627</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>-43.3221664428711</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>-70.5856323242187</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>-55.9424819946289</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>17.1724815368652</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>-74.7895202636719</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>-96.4292297363281</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>-3.94694995880127</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>-124.002922058105</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>208.379241943359</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>173.670700073242</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>35.1355133056641</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>24.8076877593994</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>37.2314186096191</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>31.7345447540283</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>19.5900154113769</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>32.8229942321777</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>24.8555755615234</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>23.1126556396484</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>-0.418350517749786</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>3.1834032535553</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>-18.9915981292725</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>-19.5809822082519</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>6.75405931472778</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>-10.7791433334351</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>-5.34644651412964</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0" t="n">
         <v>121.753295898437</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0" t="n">
         <v>56.1846618652344</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0" t="n">
         <v>60.3611755371094</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0" t="n">
         <v>-27.4751014709473</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0" t="n">
         <v>32.4521102905273</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0" t="n">
         <v>43.3510856628418</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0" t="n">
         <v>60.5988311767578</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0" t="n">
         <v>48.5842628479004</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0" t="n">
         <v>8.86315059661865</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0" t="n">
         <v>26.7547130584717</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0" t="n">
         <v>23.96510887146</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0" t="n">
         <v>23.9841003417969</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0" t="n">
         <v>21.7745780944824</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0" t="n">
         <v>13.7086915969849</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0" t="n">
         <v>-35.7029457092285</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0" t="n">
         <v>69.4585952758789</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0" t="n">
         <v>1.36047685146332</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0" t="n">
         <v>339.355590820313</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0" t="n">
         <v>233.279037475586</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0" t="n">
         <v>88.1808929443359</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0" t="n">
         <v>276.717895507813</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0" t="n">
         <v>163.732818603516</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0" t="n">
         <v>26.4500141143799</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0" t="n">
         <v>-48.5266189575195</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0" t="n">
         <v>-106.31616973877</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0" t="n">
         <v>-50.3134803771973</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>-13.0567970275879</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>-17.0501766204834</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>-20.0210723876953</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>-14.4586505889893</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>-12.4150552749634</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>-26.7909278869629</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>-0.276177197694778</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>4.07813692092896</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>2.90972185134888</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>-4.8188066482544</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>-6.55576515197754</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>-89.7335662841797</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>29.9057540893555</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>-24.4288597106934</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>-35.2028350830078</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>11.3064403533935</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>2.49431657791138</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>4.37719345092773</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>5.19725179672241</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>-3.96452689170837</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>3.00000643730164</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>-22.855447769165</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>15.5928583145142</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>-5.24143934249878</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>-3.61136126518249</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>24.0851936340332</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>11.7286949157715</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>5.60545587539673</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>16.5153160095215</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>5.68446350097656</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>-11.3651905059815</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>5.1833176612854</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>-1.70899868011475</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>-6.4952244758606</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>11.7768306732178</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>-27.0783367156982</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>4.62328290939331</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>-2.85850596427917</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>4.02088117599487</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>30.0673370361328</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>-10.2418241500854</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>-0.662332475185394</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>1.76574289798737</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>5.06093120574951</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>-6.66071462631226</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>-8.74979591369629</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>22.7123908996582</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>12.6625909805298</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>-18.1129264831543</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>1.77713227272034</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>-11.3989753723144</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>4.53403663635254</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>-42.6608390808105</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>2.35253620147705</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>3.70357084274292</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>-12.7035703659058</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>-1.18881106376648</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>-8.91909408569336</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>-49.5551452636719</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>-15.8682823181152</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>-4.43585681915283</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>-12.4169502258301</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>-13.932635307312</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18.5949287414551</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>-0.619949400424957</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>5.97893142700195</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>-3.31918263435364</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>-1.9900096654892</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>-0.0753208100795746</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>-5.96454906463623</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>-13.5028581619263</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>15.2766723632812</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>3.09169983863831</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12.3331270217896</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>19.3008098602295</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>10.1343078613281</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>25.0039844512939</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>14.5016651153565</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>7.65975427627563</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>5.62343072891235</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>1.55358707904816</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>1.29344964027405</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>-6.33556938171387</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>2.38908743858337</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>6.65152311325073</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>-2.05950951576233</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>-9.9688138961792</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>-2.85204076766968</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>-6.93038177490234</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>-1.91265022754669</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>2.72091960906982</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>5.16004133224487</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>6.60739469528198</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>8.10014724731445</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>-5.86679553985596</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>-11.9812335968018</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>-14.998291015625</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>-12.2705154418945</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>-67.0384368896484</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>-66.0136489868164</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>-23.404806137085</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>18.3238925933838</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>-4.29531621932983</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>-66.9102096557617</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>15.412446975708</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>19.3083667755127</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>2.84727096557617</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>-13.0217018127441</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>12.8474454879761</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>10.0070581436157</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>-1.59258675575256</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>-10.7745685577393</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>-5.80948781967163</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>-11.0152711868286</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>22.6392059326172</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>-22.1580505371094</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>-8.62503528594971</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>13.3095474243164</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>-12.2027292251587</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>29.1937103271484</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>-11.4907245635986</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>-23.1156635284424</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>19.7926616668701</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>24.5376491546631</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>6.31746482849121</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>6.07666444778442</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>44.6878204345703</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>-16.4873695373535</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>23.5624580383301</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>20.3580017089844</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>15.6128215789795</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>-7.35366487503052</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>15.7744035720825</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>8.08476829528809</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>-15.0909585952759</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>2.26605486869812</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>-12.4581995010376</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>-10.6714916229248</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>-5.24779939651489</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>-16.2592144012451</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>-7.51738023757935</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>-10.9658527374268</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>-14.9436655044556</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>-7.02230024337769</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>-13.6238651275635</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>14.9659585952759</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>-2.86719942092895</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>-49.2144660949707</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>-15.2987155914307</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>-18.3673439025879</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>-0.390373349189758</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>-7.37643814086914</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>19.5593795776367</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0" t="n">
         <v>-22.1485500335693</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0" t="n">
         <v>10.6469669342041</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0" t="n">
         <v>9.47597312927246</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0" t="n">
         <v>7.28384256362915</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0" t="n">
         <v>13.8670845031738</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0" t="n">
         <v>12.8485307693481</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0" t="n">
         <v>8.34891605377197</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0" t="n">
         <v>2.63244557380676</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0" t="n">
         <v>3.87987565994263</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0" t="n">
         <v>-2.37496042251587</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0" t="n">
         <v>-11.1284685134888</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0" t="n">
         <v>-3.72535920143127</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0" t="n">
         <v>-10.922324180603</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0" t="n">
         <v>-13.39293384552</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0" t="n">
         <v>0.956097364425659</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0" t="n">
         <v>-30.6142024993896</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0" t="n">
         <v>0.220115557312965</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0" t="n">
         <v>-91.9130172729492</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0" t="n">
         <v>-68.096321105957</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0" t="n">
         <v>-18.704626083374</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0" t="n">
         <v>-77.3961334228516</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0" t="n">
         <v>-55.1623764038086</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0" t="n">
         <v>-12.9054975509644</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0" t="n">
         <v>72.6239395141602</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0" t="n">
         <v>111.993980407715</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0" t="n">
         <v>-73.0472640991211</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-3.1068</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-15.064</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15.9311</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>64.6604</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-51.0422</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>91.3756</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4.0218</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>26.0963</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-15.7822</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>50.1071</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11.1042</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3.0909</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>32.1874</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1.3018</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>33.0452</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>60.7431</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>-4.2617</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>123.2555</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>31.1925</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4.9693</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>14.2346</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>72.9173</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>-38.0212</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2.4615</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>87.7646</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>-15.1925</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>-87.3414</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>11.7349</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>-11.0495</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>9.6876</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>-4.4743</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>7.5847</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>60.4332</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>3.4563</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>11.0216</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>-5.8333</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>81.7105</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>-17.1196</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>123.2892</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>5.652</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>5.6951</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>4.8603</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>-1.8438</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>41.5117</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>7.0452</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>51.8785</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>